--- a/Code/Results/Cases/Case_2_103/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_103/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9835655993425956</v>
+        <v>1.039853672188411</v>
       </c>
       <c r="D2">
-        <v>1.003772826356716</v>
+        <v>1.040342139962946</v>
       </c>
       <c r="E2">
-        <v>0.9954177058340415</v>
+        <v>1.054863011287509</v>
       </c>
       <c r="F2">
-        <v>0.9976666053443913</v>
+        <v>1.061339771427892</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035704137206558</v>
+        <v>1.033350078465052</v>
       </c>
       <c r="J2">
-        <v>1.006249223255248</v>
+        <v>1.044943438887744</v>
       </c>
       <c r="K2">
-        <v>1.015179848773066</v>
+        <v>1.043124760710345</v>
       </c>
       <c r="L2">
-        <v>1.006941250607625</v>
+        <v>1.057605051498156</v>
       </c>
       <c r="M2">
-        <v>1.0091585440681</v>
+        <v>1.064064099261173</v>
       </c>
       <c r="N2">
-        <v>1.007678212570669</v>
+        <v>1.046427378427653</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9928445040441011</v>
+        <v>1.041587208595509</v>
       </c>
       <c r="D3">
-        <v>1.010754671043839</v>
+        <v>1.041643908738153</v>
       </c>
       <c r="E3">
-        <v>1.003694292384679</v>
+        <v>1.056529615243884</v>
       </c>
       <c r="F3">
-        <v>1.006798220062681</v>
+        <v>1.063178780174586</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038209589049124</v>
+        <v>1.033713665860834</v>
       </c>
       <c r="J3">
-        <v>1.013532154190122</v>
+        <v>1.046318436330593</v>
       </c>
       <c r="K3">
-        <v>1.021251768639517</v>
+        <v>1.044235640677261</v>
       </c>
       <c r="L3">
-        <v>1.014280121277778</v>
+        <v>1.059082805258739</v>
       </c>
       <c r="M3">
-        <v>1.017344849140428</v>
+        <v>1.065715130068972</v>
       </c>
       <c r="N3">
-        <v>1.014971486102835</v>
+        <v>1.047804328524584</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9986242114187621</v>
+        <v>1.042705623798089</v>
       </c>
       <c r="D4">
-        <v>1.015105722730667</v>
+        <v>1.042483173613096</v>
       </c>
       <c r="E4">
-        <v>1.008868070278522</v>
+        <v>1.057606042126113</v>
       </c>
       <c r="F4">
-        <v>1.012505098557455</v>
+        <v>1.064366712817129</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039755481412971</v>
+        <v>1.033946269798782</v>
       </c>
       <c r="J4">
-        <v>1.018063175602354</v>
+        <v>1.047204592128104</v>
       </c>
       <c r="K4">
-        <v>1.025025190448287</v>
+        <v>1.044950852837978</v>
       </c>
       <c r="L4">
-        <v>1.018860630908914</v>
+        <v>1.06003656787782</v>
       </c>
       <c r="M4">
-        <v>1.022454904998241</v>
+        <v>1.066780996014021</v>
       </c>
       <c r="N4">
-        <v>1.019508942085188</v>
+        <v>1.048691742764971</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.001004013158002</v>
+        <v>1.043175031341449</v>
       </c>
       <c r="D5">
-        <v>1.016897605719127</v>
+        <v>1.042835277002884</v>
       </c>
       <c r="E5">
-        <v>1.011002616067871</v>
+        <v>1.058058112018526</v>
       </c>
       <c r="F5">
-        <v>1.014859308490908</v>
+        <v>1.064865648965061</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04038837889046</v>
+        <v>1.034043423168588</v>
       </c>
       <c r="J5">
-        <v>1.019927429675653</v>
+        <v>1.047576292156386</v>
       </c>
       <c r="K5">
-        <v>1.026576684021495</v>
+        <v>1.045250675747798</v>
       </c>
       <c r="L5">
-        <v>1.0207487220858</v>
+        <v>1.060436957275962</v>
       </c>
       <c r="M5">
-        <v>1.024561454227148</v>
+        <v>1.067228510619541</v>
       </c>
       <c r="N5">
-        <v>1.021375843613104</v>
+        <v>1.049063970649928</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.001400761885844</v>
+        <v>1.043253801981885</v>
       </c>
       <c r="D6">
-        <v>1.017196354025981</v>
+        <v>1.042894354586581</v>
       </c>
       <c r="E6">
-        <v>1.011358721375951</v>
+        <v>1.058133989957227</v>
       </c>
       <c r="F6">
-        <v>1.015252045463009</v>
+        <v>1.064949395369268</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040493676485648</v>
+        <v>1.034059698618619</v>
       </c>
       <c r="J6">
-        <v>1.020238143781951</v>
+        <v>1.0476386533309</v>
       </c>
       <c r="K6">
-        <v>1.026835207243646</v>
+        <v>1.045300967641504</v>
       </c>
       <c r="L6">
-        <v>1.021063612396488</v>
+        <v>1.060504151210422</v>
       </c>
       <c r="M6">
-        <v>1.024912789601639</v>
+        <v>1.067303616946397</v>
       </c>
       <c r="N6">
-        <v>1.021686998969073</v>
+        <v>1.049126420384463</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9986562022383911</v>
+        <v>1.042711899065532</v>
       </c>
       <c r="D7">
-        <v>1.015129809285747</v>
+        <v>1.04248788126438</v>
       </c>
       <c r="E7">
-        <v>1.008896747638046</v>
+        <v>1.057612084495133</v>
       </c>
       <c r="F7">
-        <v>1.012536728106792</v>
+        <v>1.064373381455477</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039764003718964</v>
+        <v>1.033947570450114</v>
       </c>
       <c r="J7">
-        <v>1.018088241773595</v>
+        <v>1.047209562085345</v>
       </c>
       <c r="K7">
-        <v>1.025046055575425</v>
+        <v>1.044954862421633</v>
       </c>
       <c r="L7">
-        <v>1.018886003860406</v>
+        <v>1.060041920132697</v>
       </c>
       <c r="M7">
-        <v>1.022483212936846</v>
+        <v>1.066786977968226</v>
       </c>
       <c r="N7">
-        <v>1.019534043853267</v>
+        <v>1.048696719780122</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9867502829012756</v>
+        <v>1.040440221352581</v>
       </c>
       <c r="D8">
-        <v>1.006168541730079</v>
+        <v>1.040782720168159</v>
       </c>
       <c r="E8">
-        <v>0.9982543532486279</v>
+        <v>1.055426665417039</v>
       </c>
       <c r="F8">
-        <v>1.000796627593259</v>
+        <v>1.06196170223064</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036567116161294</v>
+        <v>1.033473507906379</v>
       </c>
       <c r="J8">
-        <v>1.008749939312171</v>
+        <v>1.045408870154294</v>
       </c>
       <c r="K8">
-        <v>1.017265599520404</v>
+        <v>1.043500939499801</v>
       </c>
       <c r="L8">
-        <v>1.009458022465819</v>
+        <v>1.058104978623481</v>
       </c>
       <c r="M8">
-        <v>1.011965818854257</v>
+        <v>1.064622590855328</v>
       </c>
       <c r="N8">
-        <v>1.01018247993123</v>
+        <v>1.046893470659986</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9638592840627664</v>
+        <v>1.03641127011902</v>
       </c>
       <c r="D9">
-        <v>0.9889669310035082</v>
+        <v>1.037754044423573</v>
       </c>
       <c r="E9">
-        <v>0.9779549311524321</v>
+        <v>1.051559929761728</v>
       </c>
       <c r="F9">
-        <v>0.9783889822108294</v>
+        <v>1.057695799338938</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030303807751701</v>
+        <v>1.032617592876892</v>
       </c>
       <c r="J9">
-        <v>0.9907561468981779</v>
+        <v>1.042208005196337</v>
       </c>
       <c r="K9">
-        <v>1.002241584865644</v>
+        <v>1.040910910879759</v>
       </c>
       <c r="L9">
-        <v>0.9914160956557777</v>
+        <v>1.05467257074915</v>
       </c>
       <c r="M9">
-        <v>0.9918426924438334</v>
+        <v>1.060789189848955</v>
       </c>
       <c r="N9">
-        <v>0.9921631342680917</v>
+        <v>1.043688060106645</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9469938147593251</v>
+        <v>1.033706861105658</v>
       </c>
       <c r="D10">
-        <v>0.9763290950901479</v>
+        <v>1.035718142243306</v>
       </c>
       <c r="E10">
-        <v>0.963127960236702</v>
+        <v>1.048970669416594</v>
       </c>
       <c r="F10">
-        <v>0.9620069831190599</v>
+        <v>1.054840011531996</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025616766604875</v>
+        <v>1.032032917750234</v>
       </c>
       <c r="J10">
-        <v>0.977480626523999</v>
+        <v>1.040054613650803</v>
       </c>
       <c r="K10">
-        <v>0.991139304541711</v>
+        <v>1.039164748164592</v>
       </c>
       <c r="L10">
-        <v>0.9781964683319027</v>
+        <v>1.052370556543384</v>
       </c>
       <c r="M10">
-        <v>0.9770978542025819</v>
+        <v>1.058219620405827</v>
       </c>
       <c r="N10">
-        <v>0.9788687611322581</v>
+        <v>1.041531610498119</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9392198141767532</v>
+        <v>1.032531227601059</v>
       </c>
       <c r="D11">
-        <v>0.9705169304122002</v>
+        <v>1.034832441777376</v>
       </c>
       <c r="E11">
-        <v>0.9563293776325344</v>
+        <v>1.047846588621185</v>
       </c>
       <c r="F11">
-        <v>0.9544902743180347</v>
+        <v>1.053600400097783</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023441182684528</v>
+        <v>1.031776355849216</v>
       </c>
       <c r="J11">
-        <v>0.9713595322670621</v>
+        <v>1.039117375636874</v>
       </c>
       <c r="K11">
-        <v>0.9860171284216853</v>
+        <v>1.038403879068888</v>
       </c>
       <c r="L11">
-        <v>0.9721246840066203</v>
+        <v>1.051370323418807</v>
       </c>
       <c r="M11">
-        <v>0.9703246861428154</v>
+        <v>1.057103459340675</v>
       </c>
       <c r="N11">
-        <v>0.9727389742193767</v>
+        <v>1.040593041498707</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9362518509888806</v>
+        <v>1.032093833775211</v>
       </c>
       <c r="D12">
-        <v>0.9683004053261071</v>
+        <v>1.034502817838693</v>
       </c>
       <c r="E12">
-        <v>0.9537397210349263</v>
+        <v>1.047428600727244</v>
       </c>
       <c r="F12">
-        <v>0.9516261512392424</v>
+        <v>1.053139478623869</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022608526509735</v>
+        <v>1.031680542643316</v>
       </c>
       <c r="J12">
-        <v>0.9690225948474503</v>
+        <v>1.038768506572264</v>
       </c>
       <c r="K12">
-        <v>0.9840612057480009</v>
+        <v>1.038120529566974</v>
       </c>
       <c r="L12">
-        <v>0.969810305823023</v>
+        <v>1.050998259352207</v>
       </c>
       <c r="M12">
-        <v>0.9677427500162183</v>
+        <v>1.056688321527985</v>
       </c>
       <c r="N12">
-        <v>0.9703987180805789</v>
+        <v>1.04024367700001</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9368922998494912</v>
+        <v>1.032187688728116</v>
       </c>
       <c r="D13">
-        <v>0.9687785846524051</v>
+        <v>1.034573552256331</v>
       </c>
       <c r="E13">
-        <v>0.9542982600672055</v>
+        <v>1.047518281370572</v>
       </c>
       <c r="F13">
-        <v>0.9522439319182198</v>
+        <v>1.05323836961865</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022788292243457</v>
+        <v>1.031701118270294</v>
       </c>
       <c r="J13">
-        <v>0.96952687273465</v>
+        <v>1.038843373773832</v>
       </c>
       <c r="K13">
-        <v>0.9844832801399392</v>
+        <v>1.038181342178333</v>
       </c>
       <c r="L13">
-        <v>0.9703095438404904</v>
+        <v>1.051078092721388</v>
       </c>
       <c r="M13">
-        <v>0.9682997144407193</v>
+        <v>1.056777394975582</v>
       </c>
       <c r="N13">
-        <v>0.9709037121002198</v>
+        <v>1.040318650521592</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9389761827353637</v>
+        <v>1.032495087110581</v>
       </c>
       <c r="D14">
-        <v>0.9703349298668179</v>
+        <v>1.034805207997412</v>
       </c>
       <c r="E14">
-        <v>0.9561166773414808</v>
+        <v>1.047812046973577</v>
       </c>
       <c r="F14">
-        <v>0.9542550505545232</v>
+        <v>1.053562309973721</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023372872682681</v>
+        <v>1.031768446427443</v>
       </c>
       <c r="J14">
-        <v>0.9711676987038661</v>
+        <v>1.03908855313711</v>
       </c>
       <c r="K14">
-        <v>0.9858565779406823</v>
+        <v>1.038380472250754</v>
       </c>
       <c r="L14">
-        <v>0.9719346255013376</v>
+        <v>1.051339579447889</v>
       </c>
       <c r="M14">
-        <v>0.9701126604025343</v>
+        <v>1.057069155154592</v>
       </c>
       <c r="N14">
-        <v>0.9725468682305175</v>
+        <v>1.040564178067688</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9402491657149079</v>
+        <v>1.032684390583116</v>
       </c>
       <c r="D15">
-        <v>0.9712859913066428</v>
+        <v>1.034947854158715</v>
       </c>
       <c r="E15">
-        <v>0.9572282867339096</v>
+        <v>1.047992984971109</v>
       </c>
       <c r="F15">
-        <v>0.9554843331349775</v>
+        <v>1.053761836875565</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023729712801336</v>
+        <v>1.031809861179964</v>
       </c>
       <c r="J15">
-        <v>0.9721700366668575</v>
+        <v>1.039239518099199</v>
       </c>
       <c r="K15">
-        <v>0.9866954468375667</v>
+        <v>1.038503065910099</v>
       </c>
       <c r="L15">
-        <v>0.9729278411828437</v>
+        <v>1.051500618969858</v>
       </c>
       <c r="M15">
-        <v>0.9712206642509646</v>
+        <v>1.057248845382465</v>
       </c>
       <c r="N15">
-        <v>0.9735506296283862</v>
+        <v>1.040715357417339</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9474990479592241</v>
+        <v>1.033784785348424</v>
       </c>
       <c r="D16">
-        <v>0.9767071358244647</v>
+        <v>1.035776834893074</v>
       </c>
       <c r="E16">
-        <v>0.9635705779548346</v>
+        <v>1.049045208163379</v>
       </c>
       <c r="F16">
-        <v>0.9624962365399166</v>
+        <v>1.054922214919825</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025757864414437</v>
+        <v>1.03204987300659</v>
       </c>
       <c r="J16">
-        <v>0.9778784195030734</v>
+        <v>1.040116712516619</v>
       </c>
       <c r="K16">
-        <v>0.9914721254941843</v>
+        <v>1.0392151430114</v>
       </c>
       <c r="L16">
-        <v>0.9785915555016651</v>
+        <v>1.052436864824556</v>
       </c>
       <c r="M16">
-        <v>0.9775385558001314</v>
+        <v>1.058293620721593</v>
       </c>
       <c r="N16">
-        <v>0.9792671190229902</v>
+        <v>1.041593797551447</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9519143725942668</v>
+        <v>1.034473787185125</v>
       </c>
       <c r="D17">
-        <v>0.9800124182757642</v>
+        <v>1.036295714605734</v>
       </c>
       <c r="E17">
-        <v>0.9674427444454974</v>
+        <v>1.049704448266934</v>
       </c>
       <c r="F17">
-        <v>0.9667758005675307</v>
+        <v>1.055649263538654</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026989275679232</v>
+        <v>1.032199514104512</v>
       </c>
       <c r="J17">
-        <v>0.9813546234937633</v>
+        <v>1.040665656222361</v>
       </c>
       <c r="K17">
-        <v>0.9943802196168494</v>
+        <v>1.039660524676109</v>
       </c>
       <c r="L17">
-        <v>0.982046761611152</v>
+        <v>1.053023213862494</v>
       </c>
       <c r="M17">
-        <v>0.9813925758985487</v>
+        <v>1.058948026218487</v>
       </c>
       <c r="N17">
-        <v>0.982748259622073</v>
+        <v>1.042143520820216</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9544450332115659</v>
+        <v>1.034875227136422</v>
       </c>
       <c r="D18">
-        <v>0.9819080410080446</v>
+        <v>1.036597969676807</v>
       </c>
       <c r="E18">
-        <v>0.9696653776388882</v>
+        <v>1.050088691829338</v>
       </c>
       <c r="F18">
-        <v>0.9692318169663825</v>
+        <v>1.056073046975498</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027693643300009</v>
+        <v>1.03228647011054</v>
       </c>
       <c r="J18">
-        <v>0.9833468330927537</v>
+        <v>1.040985383196474</v>
       </c>
       <c r="K18">
-        <v>0.9960465479721344</v>
+        <v>1.039919848956679</v>
       </c>
       <c r="L18">
-        <v>0.9840291090363171</v>
+        <v>1.053364889907556</v>
       </c>
       <c r="M18">
-        <v>0.9836036606299896</v>
+        <v>1.0593293913486</v>
       </c>
       <c r="N18">
-        <v>0.9847432983872039</v>
+        <v>1.042463701843305</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9553005985684141</v>
+        <v>1.035012033192366</v>
       </c>
       <c r="D19">
-        <v>0.9825491016508537</v>
+        <v>1.036700963616239</v>
       </c>
       <c r="E19">
-        <v>0.9704173484908626</v>
+        <v>1.05021966195001</v>
       </c>
       <c r="F19">
-        <v>0.970062672480165</v>
+        <v>1.056217497248311</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027931529114744</v>
+        <v>1.032316064522076</v>
       </c>
       <c r="J19">
-        <v>0.9840203199297759</v>
+        <v>1.041094323823789</v>
       </c>
       <c r="K19">
-        <v>0.9966098137574717</v>
+        <v>1.040008194298782</v>
       </c>
       <c r="L19">
-        <v>0.9846996251853427</v>
+        <v>1.053481336852206</v>
       </c>
       <c r="M19">
-        <v>0.9843515354464887</v>
+        <v>1.059459370093583</v>
       </c>
       <c r="N19">
-        <v>0.9854177416527845</v>
+        <v>1.042572797178807</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9514453393061254</v>
+        <v>1.034399909785023</v>
       </c>
       <c r="D20">
-        <v>0.979661176415629</v>
+        <v>1.03624008505613</v>
       </c>
       <c r="E20">
-        <v>0.9670310644538531</v>
+        <v>1.049633747126991</v>
       </c>
       <c r="F20">
-        <v>0.966320856292778</v>
+        <v>1.055571288409509</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0268586112524</v>
+        <v>1.032183492900718</v>
       </c>
       <c r="J20">
-        <v>0.9809853697429632</v>
+        <v>1.040606807716645</v>
       </c>
       <c r="K20">
-        <v>0.9940713426462982</v>
+        <v>1.039612787036046</v>
       </c>
       <c r="L20">
-        <v>0.981679510931813</v>
+        <v>1.052960338551211</v>
       </c>
       <c r="M20">
-        <v>0.9809829438155222</v>
+        <v>1.058877849839588</v>
       </c>
       <c r="N20">
-        <v>0.9823784814885931</v>
+        <v>1.042084588742872</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9383648357072143</v>
+        <v>1.03240458573582</v>
       </c>
       <c r="D21">
-        <v>0.9698782749209425</v>
+        <v>1.034737008800754</v>
       </c>
       <c r="E21">
-        <v>0.9555830430105028</v>
+        <v>1.047725552997562</v>
       </c>
       <c r="F21">
-        <v>0.9536648926583158</v>
+        <v>1.053466930863064</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02320142938112</v>
+        <v>1.031748634210373</v>
       </c>
       <c r="J21">
-        <v>0.9706863292543606</v>
+        <v>1.039016374397104</v>
       </c>
       <c r="K21">
-        <v>0.9854537020667039</v>
+        <v>1.038321853627065</v>
       </c>
       <c r="L21">
-        <v>0.9714577708653303</v>
+        <v>1.051262592959724</v>
       </c>
       <c r="M21">
-        <v>0.9695806865065875</v>
+        <v>1.056983254260503</v>
       </c>
       <c r="N21">
-        <v>0.9720648151811798</v>
+        <v>1.040491896825592</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9296694632335687</v>
+        <v>1.03114592190842</v>
       </c>
       <c r="D22">
-        <v>0.9633897003803141</v>
+        <v>1.033788282527395</v>
       </c>
       <c r="E22">
-        <v>0.9480079878697448</v>
+        <v>1.046523159256065</v>
       </c>
       <c r="F22">
-        <v>0.9452850226731213</v>
+        <v>1.052141082632783</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020758302770273</v>
+        <v>1.031472241003616</v>
       </c>
       <c r="J22">
-        <v>0.9638399916298278</v>
+        <v>1.038012133339892</v>
       </c>
       <c r="K22">
-        <v>0.9797230566519648</v>
+        <v>1.037505969476004</v>
       </c>
       <c r="L22">
-        <v>0.964684910032115</v>
+        <v>1.05019206176029</v>
       </c>
       <c r="M22">
-        <v>0.9620243219960888</v>
+        <v>1.055788879886606</v>
       </c>
       <c r="N22">
-        <v>0.9652087549719344</v>
+        <v>1.039486229630891</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.934327426441008</v>
+        <v>1.031813560805182</v>
       </c>
       <c r="D23">
-        <v>0.966863969114833</v>
+        <v>1.034291573775331</v>
       </c>
       <c r="E23">
-        <v>0.9520623335602475</v>
+        <v>1.047160826363289</v>
       </c>
       <c r="F23">
-        <v>0.9497707016355073</v>
+        <v>1.052844207216228</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022068081638215</v>
+        <v>1.03161904639655</v>
       </c>
       <c r="J23">
-        <v>0.9675073568416532</v>
+        <v>1.038544910632227</v>
       </c>
       <c r="K23">
-        <v>0.9827929275968458</v>
+        <v>1.037938889559683</v>
       </c>
       <c r="L23">
-        <v>0.9683107767595608</v>
+        <v>1.050759868750357</v>
       </c>
       <c r="M23">
-        <v>0.9660697933401489</v>
+        <v>1.056422346247545</v>
       </c>
       <c r="N23">
-        <v>0.9688813282630133</v>
+        <v>1.040019763528091</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9516574127632195</v>
+        <v>1.034433293171144</v>
       </c>
       <c r="D24">
-        <v>0.9798199868029907</v>
+        <v>1.036265222886847</v>
       </c>
       <c r="E24">
-        <v>0.9672171954206896</v>
+        <v>1.049665694793922</v>
       </c>
       <c r="F24">
-        <v>0.9665265495716276</v>
+        <v>1.055606522915115</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026917695626168</v>
+        <v>1.03219073320381</v>
       </c>
       <c r="J24">
-        <v>0.9811523284813226</v>
+        <v>1.040633400252473</v>
       </c>
       <c r="K24">
-        <v>0.9942110028520849</v>
+        <v>1.03963435903984</v>
       </c>
       <c r="L24">
-        <v>0.9818455572310801</v>
+        <v>1.05298875022183</v>
       </c>
       <c r="M24">
-        <v>0.9811681523852004</v>
+        <v>1.058909560570288</v>
       </c>
       <c r="N24">
-        <v>0.9825456773275113</v>
+        <v>1.04211121904315</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9700334702471226</v>
+        <v>1.037456028192323</v>
       </c>
       <c r="D25">
-        <v>0.9936018506841288</v>
+        <v>1.038539938337251</v>
       </c>
       <c r="E25">
-        <v>0.983409850322787</v>
+        <v>1.052561526634529</v>
       </c>
       <c r="F25">
-        <v>0.9844125672581594</v>
+        <v>1.058800656329875</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032005899097727</v>
+        <v>1.03284132839671</v>
       </c>
       <c r="J25">
-        <v>0.9956131953201577</v>
+        <v>1.043038881538278</v>
       </c>
       <c r="K25">
-        <v>1.006300308362526</v>
+        <v>1.041583881597189</v>
       </c>
       <c r="L25">
-        <v>0.9962712848807433</v>
+        <v>1.05556229445121</v>
       </c>
       <c r="M25">
-        <v>0.9972577755827574</v>
+        <v>1.061782613241197</v>
       </c>
       <c r="N25">
-        <v>0.997027080255942</v>
+        <v>1.044520116388294</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_103/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_103/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039853672188411</v>
+        <v>0.983565599342595</v>
       </c>
       <c r="D2">
-        <v>1.040342139962946</v>
+        <v>1.003772826356716</v>
       </c>
       <c r="E2">
-        <v>1.054863011287509</v>
+        <v>0.9954177058340418</v>
       </c>
       <c r="F2">
-        <v>1.061339771427892</v>
+        <v>0.9976666053443911</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033350078465052</v>
+        <v>1.035704137206558</v>
       </c>
       <c r="J2">
-        <v>1.044943438887744</v>
+        <v>1.006249223255247</v>
       </c>
       <c r="K2">
-        <v>1.043124760710345</v>
+        <v>1.015179848773066</v>
       </c>
       <c r="L2">
-        <v>1.057605051498156</v>
+        <v>1.006941250607625</v>
       </c>
       <c r="M2">
-        <v>1.064064099261173</v>
+        <v>1.0091585440681</v>
       </c>
       <c r="N2">
-        <v>1.046427378427653</v>
+        <v>1.007678212570669</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041587208595509</v>
+        <v>0.9928445040441027</v>
       </c>
       <c r="D3">
-        <v>1.041643908738153</v>
+        <v>1.01075467104384</v>
       </c>
       <c r="E3">
-        <v>1.056529615243884</v>
+        <v>1.003694292384681</v>
       </c>
       <c r="F3">
-        <v>1.063178780174586</v>
+        <v>1.006798220062683</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033713665860834</v>
+        <v>1.038209589049125</v>
       </c>
       <c r="J3">
-        <v>1.046318436330593</v>
+        <v>1.013532154190124</v>
       </c>
       <c r="K3">
-        <v>1.044235640677261</v>
+        <v>1.021251768639518</v>
       </c>
       <c r="L3">
-        <v>1.059082805258739</v>
+        <v>1.014280121277779</v>
       </c>
       <c r="M3">
-        <v>1.065715130068972</v>
+        <v>1.01734484914043</v>
       </c>
       <c r="N3">
-        <v>1.047804328524584</v>
+        <v>1.014971486102837</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042705623798089</v>
+        <v>0.9986242114187619</v>
       </c>
       <c r="D4">
-        <v>1.042483173613096</v>
+        <v>1.015105722730666</v>
       </c>
       <c r="E4">
-        <v>1.057606042126113</v>
+        <v>1.008868070278523</v>
       </c>
       <c r="F4">
-        <v>1.064366712817129</v>
+        <v>1.012505098557455</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033946269798782</v>
+        <v>1.039755481412971</v>
       </c>
       <c r="J4">
-        <v>1.047204592128104</v>
+        <v>1.018063175602354</v>
       </c>
       <c r="K4">
-        <v>1.044950852837978</v>
+        <v>1.025025190448286</v>
       </c>
       <c r="L4">
-        <v>1.06003656787782</v>
+        <v>1.018860630908915</v>
       </c>
       <c r="M4">
-        <v>1.066780996014021</v>
+        <v>1.022454904998241</v>
       </c>
       <c r="N4">
-        <v>1.048691742764971</v>
+        <v>1.019508942085187</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043175031341449</v>
+        <v>1.001004013158001</v>
       </c>
       <c r="D5">
-        <v>1.042835277002884</v>
+        <v>1.016897605719126</v>
       </c>
       <c r="E5">
-        <v>1.058058112018526</v>
+        <v>1.011002616067869</v>
       </c>
       <c r="F5">
-        <v>1.064865648965061</v>
+        <v>1.014859308490906</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034043423168588</v>
+        <v>1.04038837889046</v>
       </c>
       <c r="J5">
-        <v>1.047576292156386</v>
+        <v>1.019927429675652</v>
       </c>
       <c r="K5">
-        <v>1.045250675747798</v>
+        <v>1.026576684021494</v>
       </c>
       <c r="L5">
-        <v>1.060436957275962</v>
+        <v>1.020748722085799</v>
       </c>
       <c r="M5">
-        <v>1.067228510619541</v>
+        <v>1.024561454227147</v>
       </c>
       <c r="N5">
-        <v>1.049063970649928</v>
+        <v>1.021375843613103</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043253801981885</v>
+        <v>1.001400761885843</v>
       </c>
       <c r="D6">
-        <v>1.042894354586581</v>
+        <v>1.017196354025981</v>
       </c>
       <c r="E6">
-        <v>1.058133989957227</v>
+        <v>1.011358721375952</v>
       </c>
       <c r="F6">
-        <v>1.064949395369268</v>
+        <v>1.015252045463009</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034059698618619</v>
+        <v>1.040493676485648</v>
       </c>
       <c r="J6">
-        <v>1.0476386533309</v>
+        <v>1.020238143781951</v>
       </c>
       <c r="K6">
-        <v>1.045300967641504</v>
+        <v>1.026835207243646</v>
       </c>
       <c r="L6">
-        <v>1.060504151210422</v>
+        <v>1.021063612396488</v>
       </c>
       <c r="M6">
-        <v>1.067303616946397</v>
+        <v>1.02491278960164</v>
       </c>
       <c r="N6">
-        <v>1.049126420384463</v>
+        <v>1.021686998969072</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042711899065532</v>
+        <v>0.9986562022383904</v>
       </c>
       <c r="D7">
-        <v>1.04248788126438</v>
+        <v>1.015129809285746</v>
       </c>
       <c r="E7">
-        <v>1.057612084495133</v>
+        <v>1.008896747638045</v>
       </c>
       <c r="F7">
-        <v>1.064373381455477</v>
+        <v>1.012536728106791</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033947570450114</v>
+        <v>1.039764003718963</v>
       </c>
       <c r="J7">
-        <v>1.047209562085345</v>
+        <v>1.018088241773595</v>
       </c>
       <c r="K7">
-        <v>1.044954862421633</v>
+        <v>1.025046055575425</v>
       </c>
       <c r="L7">
-        <v>1.060041920132697</v>
+        <v>1.018886003860406</v>
       </c>
       <c r="M7">
-        <v>1.066786977968226</v>
+        <v>1.022483212936845</v>
       </c>
       <c r="N7">
-        <v>1.048696719780122</v>
+        <v>1.019534043853267</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040440221352581</v>
+        <v>0.9867502829012739</v>
       </c>
       <c r="D8">
-        <v>1.040782720168159</v>
+        <v>1.006168541730077</v>
       </c>
       <c r="E8">
-        <v>1.055426665417039</v>
+        <v>0.998254353248627</v>
       </c>
       <c r="F8">
-        <v>1.06196170223064</v>
+        <v>1.000796627593258</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033473507906379</v>
+        <v>1.036567116161293</v>
       </c>
       <c r="J8">
-        <v>1.045408870154294</v>
+        <v>1.00874993931217</v>
       </c>
       <c r="K8">
-        <v>1.043500939499801</v>
+        <v>1.017265599520402</v>
       </c>
       <c r="L8">
-        <v>1.058104978623481</v>
+        <v>1.009458022465818</v>
       </c>
       <c r="M8">
-        <v>1.064622590855328</v>
+        <v>1.011965818854256</v>
       </c>
       <c r="N8">
-        <v>1.046893470659986</v>
+        <v>1.010182479931229</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03641127011902</v>
+        <v>0.9638592840627694</v>
       </c>
       <c r="D9">
-        <v>1.037754044423573</v>
+        <v>0.988966931003511</v>
       </c>
       <c r="E9">
-        <v>1.051559929761728</v>
+        <v>0.9779549311524343</v>
       </c>
       <c r="F9">
-        <v>1.057695799338938</v>
+        <v>0.9783889822108316</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032617592876892</v>
+        <v>1.030303807751703</v>
       </c>
       <c r="J9">
-        <v>1.042208005196337</v>
+        <v>0.9907561468981807</v>
       </c>
       <c r="K9">
-        <v>1.040910910879759</v>
+        <v>1.002241584865647</v>
       </c>
       <c r="L9">
-        <v>1.05467257074915</v>
+        <v>0.9914160956557799</v>
       </c>
       <c r="M9">
-        <v>1.060789189848955</v>
+        <v>0.9918426924438357</v>
       </c>
       <c r="N9">
-        <v>1.043688060106645</v>
+        <v>0.9921631342680947</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033706861105658</v>
+        <v>0.9469938147593258</v>
       </c>
       <c r="D10">
-        <v>1.035718142243306</v>
+        <v>0.9763290950901484</v>
       </c>
       <c r="E10">
-        <v>1.048970669416594</v>
+        <v>0.9631279602367032</v>
       </c>
       <c r="F10">
-        <v>1.054840011531996</v>
+        <v>0.9620069831190612</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032032917750234</v>
+        <v>1.025616766604875</v>
       </c>
       <c r="J10">
-        <v>1.040054613650803</v>
+        <v>0.9774806265239996</v>
       </c>
       <c r="K10">
-        <v>1.039164748164592</v>
+        <v>0.9911393045417116</v>
       </c>
       <c r="L10">
-        <v>1.052370556543384</v>
+        <v>0.9781964683319034</v>
       </c>
       <c r="M10">
-        <v>1.058219620405827</v>
+        <v>0.9770978542025831</v>
       </c>
       <c r="N10">
-        <v>1.041531610498119</v>
+        <v>0.9788687611322587</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032531227601059</v>
+        <v>0.939219814176753</v>
       </c>
       <c r="D11">
-        <v>1.034832441777376</v>
+        <v>0.9705169304121998</v>
       </c>
       <c r="E11">
-        <v>1.047846588621185</v>
+        <v>0.9563293776325341</v>
       </c>
       <c r="F11">
-        <v>1.053600400097783</v>
+        <v>0.9544902743180346</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031776355849216</v>
+        <v>1.023441182684528</v>
       </c>
       <c r="J11">
-        <v>1.039117375636874</v>
+        <v>0.9713595322670618</v>
       </c>
       <c r="K11">
-        <v>1.038403879068888</v>
+        <v>0.9860171284216849</v>
       </c>
       <c r="L11">
-        <v>1.051370323418807</v>
+        <v>0.9721246840066203</v>
       </c>
       <c r="M11">
-        <v>1.057103459340675</v>
+        <v>0.9703246861428154</v>
       </c>
       <c r="N11">
-        <v>1.040593041498707</v>
+        <v>0.9727389742193766</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032093833775211</v>
+        <v>0.9362518509888798</v>
       </c>
       <c r="D12">
-        <v>1.034502817838693</v>
+        <v>0.9683004053261061</v>
       </c>
       <c r="E12">
-        <v>1.047428600727244</v>
+        <v>0.9537397210349263</v>
       </c>
       <c r="F12">
-        <v>1.053139478623869</v>
+        <v>0.9516261512392422</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031680542643316</v>
+        <v>1.022608526509734</v>
       </c>
       <c r="J12">
-        <v>1.038768506572264</v>
+        <v>0.9690225948474497</v>
       </c>
       <c r="K12">
-        <v>1.038120529566974</v>
+        <v>0.9840612057479999</v>
       </c>
       <c r="L12">
-        <v>1.050998259352207</v>
+        <v>0.9698103058230229</v>
       </c>
       <c r="M12">
-        <v>1.056688321527985</v>
+        <v>0.967742750016218</v>
       </c>
       <c r="N12">
-        <v>1.04024367700001</v>
+        <v>0.9703987180805781</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032187688728116</v>
+        <v>0.9368922998494921</v>
       </c>
       <c r="D13">
-        <v>1.034573552256331</v>
+        <v>0.9687785846524057</v>
       </c>
       <c r="E13">
-        <v>1.047518281370572</v>
+        <v>0.9542982600672055</v>
       </c>
       <c r="F13">
-        <v>1.05323836961865</v>
+        <v>0.9522439319182199</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031701118270294</v>
+        <v>1.022788292243457</v>
       </c>
       <c r="J13">
-        <v>1.038843373773832</v>
+        <v>0.9695268727346505</v>
       </c>
       <c r="K13">
-        <v>1.038181342178333</v>
+        <v>0.9844832801399399</v>
       </c>
       <c r="L13">
-        <v>1.051078092721388</v>
+        <v>0.9703095438404904</v>
       </c>
       <c r="M13">
-        <v>1.056777394975582</v>
+        <v>0.9682997144407195</v>
       </c>
       <c r="N13">
-        <v>1.040318650521592</v>
+        <v>0.9709037121002201</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032495087110581</v>
+        <v>0.9389761827353643</v>
       </c>
       <c r="D14">
-        <v>1.034805207997412</v>
+        <v>0.9703349298668184</v>
       </c>
       <c r="E14">
-        <v>1.047812046973577</v>
+        <v>0.9561166773414814</v>
       </c>
       <c r="F14">
-        <v>1.053562309973721</v>
+        <v>0.954255050554524</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031768446427443</v>
+        <v>1.023372872682681</v>
       </c>
       <c r="J14">
-        <v>1.03908855313711</v>
+        <v>0.9711676987038662</v>
       </c>
       <c r="K14">
-        <v>1.038380472250754</v>
+        <v>0.9858565779406826</v>
       </c>
       <c r="L14">
-        <v>1.051339579447889</v>
+        <v>0.9719346255013381</v>
       </c>
       <c r="M14">
-        <v>1.057069155154592</v>
+        <v>0.9701126604025349</v>
       </c>
       <c r="N14">
-        <v>1.040564178067688</v>
+        <v>0.9725468682305181</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032684390583116</v>
+        <v>0.9402491657149069</v>
       </c>
       <c r="D15">
-        <v>1.034947854158715</v>
+        <v>0.9712859913066417</v>
       </c>
       <c r="E15">
-        <v>1.047992984971109</v>
+        <v>0.9572282867339081</v>
       </c>
       <c r="F15">
-        <v>1.053761836875565</v>
+        <v>0.9554843331349762</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031809861179964</v>
+        <v>1.023729712801336</v>
       </c>
       <c r="J15">
-        <v>1.039239518099199</v>
+        <v>0.9721700366668563</v>
       </c>
       <c r="K15">
-        <v>1.038503065910099</v>
+        <v>0.9866954468375655</v>
       </c>
       <c r="L15">
-        <v>1.051500618969858</v>
+        <v>0.9729278411828424</v>
       </c>
       <c r="M15">
-        <v>1.057248845382465</v>
+        <v>0.9712206642509633</v>
       </c>
       <c r="N15">
-        <v>1.040715357417339</v>
+        <v>0.973550629628385</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033784785348424</v>
+        <v>0.947499047959224</v>
       </c>
       <c r="D16">
-        <v>1.035776834893074</v>
+        <v>0.9767071358244647</v>
       </c>
       <c r="E16">
-        <v>1.049045208163379</v>
+        <v>0.9635705779548345</v>
       </c>
       <c r="F16">
-        <v>1.054922214919825</v>
+        <v>0.9624962365399162</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03204987300659</v>
+        <v>1.025757864414437</v>
       </c>
       <c r="J16">
-        <v>1.040116712516619</v>
+        <v>0.9778784195030734</v>
       </c>
       <c r="K16">
-        <v>1.0392151430114</v>
+        <v>0.9914721254941844</v>
       </c>
       <c r="L16">
-        <v>1.052436864824556</v>
+        <v>0.9785915555016651</v>
       </c>
       <c r="M16">
-        <v>1.058293620721593</v>
+        <v>0.9775385558001312</v>
       </c>
       <c r="N16">
-        <v>1.041593797551447</v>
+        <v>0.9792671190229904</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034473787185125</v>
+        <v>0.951914372594268</v>
       </c>
       <c r="D17">
-        <v>1.036295714605734</v>
+        <v>0.9800124182757656</v>
       </c>
       <c r="E17">
-        <v>1.049704448266934</v>
+        <v>0.9674427444454979</v>
       </c>
       <c r="F17">
-        <v>1.055649263538654</v>
+        <v>0.9667758005675318</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032199514104512</v>
+        <v>1.026989275679233</v>
       </c>
       <c r="J17">
-        <v>1.040665656222361</v>
+        <v>0.9813546234937645</v>
       </c>
       <c r="K17">
-        <v>1.039660524676109</v>
+        <v>0.9943802196168504</v>
       </c>
       <c r="L17">
-        <v>1.053023213862494</v>
+        <v>0.9820467616111527</v>
       </c>
       <c r="M17">
-        <v>1.058948026218487</v>
+        <v>0.9813925758985494</v>
       </c>
       <c r="N17">
-        <v>1.042143520820216</v>
+        <v>0.9827482596220743</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034875227136422</v>
+        <v>0.9544450332115657</v>
       </c>
       <c r="D18">
-        <v>1.036597969676807</v>
+        <v>0.9819080410080445</v>
       </c>
       <c r="E18">
-        <v>1.050088691829338</v>
+        <v>0.969665377638888</v>
       </c>
       <c r="F18">
-        <v>1.056073046975498</v>
+        <v>0.9692318169663822</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03228647011054</v>
+        <v>1.027693643300009</v>
       </c>
       <c r="J18">
-        <v>1.040985383196474</v>
+        <v>0.9833468330927533</v>
       </c>
       <c r="K18">
-        <v>1.039919848956679</v>
+        <v>0.9960465479721343</v>
       </c>
       <c r="L18">
-        <v>1.053364889907556</v>
+        <v>0.9840291090363169</v>
       </c>
       <c r="M18">
-        <v>1.0593293913486</v>
+        <v>0.9836036606299895</v>
       </c>
       <c r="N18">
-        <v>1.042463701843305</v>
+        <v>0.9847432983872033</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035012033192366</v>
+        <v>0.9553005985684158</v>
       </c>
       <c r="D19">
-        <v>1.036700963616239</v>
+        <v>0.9825491016508549</v>
       </c>
       <c r="E19">
-        <v>1.05021966195001</v>
+        <v>0.9704173484908634</v>
       </c>
       <c r="F19">
-        <v>1.056217497248311</v>
+        <v>0.970062672480166</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032316064522076</v>
+        <v>1.027931529114745</v>
       </c>
       <c r="J19">
-        <v>1.041094323823789</v>
+        <v>0.9840203199297773</v>
       </c>
       <c r="K19">
-        <v>1.040008194298782</v>
+        <v>0.9966098137574728</v>
       </c>
       <c r="L19">
-        <v>1.053481336852206</v>
+        <v>0.9846996251853437</v>
       </c>
       <c r="M19">
-        <v>1.059459370093583</v>
+        <v>0.9843515354464897</v>
       </c>
       <c r="N19">
-        <v>1.042572797178807</v>
+        <v>0.9854177416527858</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034399909785023</v>
+        <v>0.9514453393061273</v>
       </c>
       <c r="D20">
-        <v>1.03624008505613</v>
+        <v>0.9796611764156307</v>
       </c>
       <c r="E20">
-        <v>1.049633747126991</v>
+        <v>0.9670310644538537</v>
       </c>
       <c r="F20">
-        <v>1.055571288409509</v>
+        <v>0.966320856292779</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032183492900718</v>
+        <v>1.026858611252401</v>
       </c>
       <c r="J20">
-        <v>1.040606807716645</v>
+        <v>0.9809853697429648</v>
       </c>
       <c r="K20">
-        <v>1.039612787036046</v>
+        <v>0.9940713426463</v>
       </c>
       <c r="L20">
-        <v>1.052960338551211</v>
+        <v>0.9816795109318136</v>
       </c>
       <c r="M20">
-        <v>1.058877849839588</v>
+        <v>0.9809829438155232</v>
       </c>
       <c r="N20">
-        <v>1.042084588742872</v>
+        <v>0.9823784814885946</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03240458573582</v>
+        <v>0.9383648357072143</v>
       </c>
       <c r="D21">
-        <v>1.034737008800754</v>
+        <v>0.9698782749209424</v>
       </c>
       <c r="E21">
-        <v>1.047725552997562</v>
+        <v>0.9555830430105036</v>
       </c>
       <c r="F21">
-        <v>1.053466930863064</v>
+        <v>0.9536648926583167</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031748634210373</v>
+        <v>1.02320142938112</v>
       </c>
       <c r="J21">
-        <v>1.039016374397104</v>
+        <v>0.9706863292543609</v>
       </c>
       <c r="K21">
-        <v>1.038321853627065</v>
+        <v>0.9854537020667041</v>
       </c>
       <c r="L21">
-        <v>1.051262592959724</v>
+        <v>0.9714577708653309</v>
       </c>
       <c r="M21">
-        <v>1.056983254260503</v>
+        <v>0.9695806865065882</v>
       </c>
       <c r="N21">
-        <v>1.040491896825592</v>
+        <v>0.9720648151811803</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03114592190842</v>
+        <v>0.9296694632335706</v>
       </c>
       <c r="D22">
-        <v>1.033788282527395</v>
+        <v>0.9633897003803155</v>
       </c>
       <c r="E22">
-        <v>1.046523159256065</v>
+        <v>0.9480079878697453</v>
       </c>
       <c r="F22">
-        <v>1.052141082632783</v>
+        <v>0.9452850226731221</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031472241003616</v>
+        <v>1.020758302770273</v>
       </c>
       <c r="J22">
-        <v>1.038012133339892</v>
+        <v>0.963839991629829</v>
       </c>
       <c r="K22">
-        <v>1.037505969476004</v>
+        <v>0.9797230566519661</v>
       </c>
       <c r="L22">
-        <v>1.05019206176029</v>
+        <v>0.9646849100321154</v>
       </c>
       <c r="M22">
-        <v>1.055788879886606</v>
+        <v>0.9620243219960893</v>
       </c>
       <c r="N22">
-        <v>1.039486229630891</v>
+        <v>0.9652087549719358</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031813560805182</v>
+        <v>0.9343274264410073</v>
       </c>
       <c r="D23">
-        <v>1.034291573775331</v>
+        <v>0.9668639691148323</v>
       </c>
       <c r="E23">
-        <v>1.047160826363289</v>
+        <v>0.9520623335602467</v>
       </c>
       <c r="F23">
-        <v>1.052844207216228</v>
+        <v>0.9497707016355061</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03161904639655</v>
+        <v>1.022068081638214</v>
       </c>
       <c r="J23">
-        <v>1.038544910632227</v>
+        <v>0.9675073568416527</v>
       </c>
       <c r="K23">
-        <v>1.037938889559683</v>
+        <v>0.9827929275968451</v>
       </c>
       <c r="L23">
-        <v>1.050759868750357</v>
+        <v>0.96831077675956</v>
       </c>
       <c r="M23">
-        <v>1.056422346247545</v>
+        <v>0.9660697933401478</v>
       </c>
       <c r="N23">
-        <v>1.040019763528091</v>
+        <v>0.9688813282630127</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034433293171144</v>
+        <v>0.9516574127632202</v>
       </c>
       <c r="D24">
-        <v>1.036265222886847</v>
+        <v>0.9798199868029913</v>
       </c>
       <c r="E24">
-        <v>1.049665694793922</v>
+        <v>0.9672171954206902</v>
       </c>
       <c r="F24">
-        <v>1.055606522915115</v>
+        <v>0.9665265495716282</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03219073320381</v>
+        <v>1.026917695626168</v>
       </c>
       <c r="J24">
-        <v>1.040633400252473</v>
+        <v>0.9811523284813235</v>
       </c>
       <c r="K24">
-        <v>1.03963435903984</v>
+        <v>0.9942110028520857</v>
       </c>
       <c r="L24">
-        <v>1.05298875022183</v>
+        <v>0.9818455572310806</v>
       </c>
       <c r="M24">
-        <v>1.058909560570288</v>
+        <v>0.9811681523852009</v>
       </c>
       <c r="N24">
-        <v>1.04211121904315</v>
+        <v>0.9825456773275121</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037456028192323</v>
+        <v>0.9700334702471225</v>
       </c>
       <c r="D25">
-        <v>1.038539938337251</v>
+        <v>0.993601850684129</v>
       </c>
       <c r="E25">
-        <v>1.052561526634529</v>
+        <v>0.983409850322787</v>
       </c>
       <c r="F25">
-        <v>1.058800656329875</v>
+        <v>0.9844125672581596</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03284132839671</v>
+        <v>1.032005899097727</v>
       </c>
       <c r="J25">
-        <v>1.043038881538278</v>
+        <v>0.9956131953201578</v>
       </c>
       <c r="K25">
-        <v>1.041583881597189</v>
+        <v>1.006300308362526</v>
       </c>
       <c r="L25">
-        <v>1.05556229445121</v>
+        <v>0.9962712848807433</v>
       </c>
       <c r="M25">
-        <v>1.061782613241197</v>
+        <v>0.9972577755827575</v>
       </c>
       <c r="N25">
-        <v>1.044520116388294</v>
+        <v>0.9970270802559421</v>
       </c>
     </row>
   </sheetData>
